--- a/spreadsheet/sap_checklist.pt.xlsx
+++ b/spreadsheet/sap_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisão da zona de desembarque do Azure</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Imponha um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Não combine o ASCS e o cluster de banco de dados em uma VM única/mesma</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1120,17 +1120,17 @@
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Imponha propogação de princípio para o encaminhamento da identidade do aplicativo de nuvem SAP para SAP no local (Incluindo IaaS) através do conector de nuvem</t>
+          <t>Verifique se o IP flutuante está habilitado no balanceador de carga</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1166,17 +1166,17 @@
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
-      <c r="H9" s="16" t="n"/>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Implemente o Single Sign on (SSO) usando o Azure Active Directory ou o Active Directory Federation Services (AD FS) para que os usuários finais condam o nécto aos aplicativos SAP, sempre que possível.</t>
+          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1212,17 +1212,17 @@
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="H10" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="n"/>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>750ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,17 +1233,17 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Se o SuccessFactor for usado como aplicativo HCM, aproveite o recurso automatizado de provisionamento do usuário para o Azure AD.</t>
+          <t>Use um grupo de posicionamento de proximidade por SAP SID. Os grupos não se estendem entre zonas de disponibilidade ou regiões do Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1260,19 +1260,15 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I11" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="n"/>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1283,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Aplicativos web baseados em SSO para SAP Netweaver como Fiori, webgui etc. podem ser implementados usando SAML</t>
+          <t>No momento, o Azure não oferece suporte à combinação de ASCS e db HA no mesmo cluster do Linux Pacemaker; separe-os em clusters individuais. No entanto, você pode combinar até cinco clusters de vários serviços centrais em um par de VMs.</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1310,19 +1306,15 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1333,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>O SSO para SAP GUI pode ser implementado usando o SAP SSO ou uma solução de terceiros</t>
+          <t>Usar uma SKU do Balanceador de Carga Padrão na frente de clusters ASCS e de banco de dados</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1360,19 +1352,15 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
-        </is>
-      </c>
-      <c r="I13" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3686af46-791f-4893-9ada-43324e138115</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1383,17 +1371,17 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Aplicativos SSO para SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS e SAP C4C com AZure AD podem ser implementados usando SAML</t>
+          <t>Ambas as VMs no par de HA devem ser implantadas em um conjunto de disponibilidade, ou as zonas de disponibilidade devem ter o mesmo tamanho e ter a mesma configuração de armazenamento</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1410,19 +1398,15 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
-        </is>
-      </c>
-      <c r="I14" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+        </is>
+      </c>
+      <c r="I14" s="16" t="n"/>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1433,17 +1417,17 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>A tecnologia de replicação de banco de dados nativa deve ser usada para sincronizar o banco de dados em um par de HA.</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1460,19 +1444,15 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
-        </is>
-      </c>
-      <c r="I15" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1483,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Execute uma recuperação point-in-time para seus bancos de dados de produção a qualquer momento e em um período de tempo que atenda ao seu RTO; A recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou por meio do SAP, incidentalmente</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1510,19 +1490,15 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n"/>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1533,17 +1509,17 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>aplicar as políticas existentes do Grupo de Gerenciamento para assinaturas SAP</t>
+          <t>O CIDR para a rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor ao CIDR da Vnet do site de DR</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1558,21 +1534,13 @@
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1583,17 +1551,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>enfore aplicativos intimamente acoplado na mesma assinatura SAP para evitar roteamento adicional e complexidade de gerenciamento</t>
+          <t>Use a Recuperação de Site para replicar um servidor de aplicativos para um site de DR. A Recuperação de Site também pode ajudar a replicar VMs de cluster de serviços centrais para o site de DR. Ao invocar a DR, você precisará reconfigurar o cluster do Linux Pacemaker no site da DR (por exemplo, substitua o VIP ou o SBD, execute corosync.conf e muito mais).</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1608,21 +1576,13 @@
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
-      <c r="H18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1633,17 +1593,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveite a Suscription como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
+          <t>A replicação de banco de dados nativo deve ser usada para sincronizar dados com o site de recuperação de dados, em vez do Azure Site Recovery</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1658,21 +1618,13 @@
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1683,17 +1635,17 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Garanta o aumento do contingente como parte do provisionamento de subscrição (por exemplo, núcleos VM totais disponíveis dentro de uma assinatura).</t>
+          <t>Fazer solicitações de cota para SKU e Zonas de VM corretas</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1708,21 +1660,13 @@
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
-      <c r="H20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1733,23 +1677,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1758,21 +1702,17 @@
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
+      <c r="H21" s="16" t="n"/>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1783,17 +1723,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Aproveite a etiqueta de recursos do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Nível (Nível Web, Nível de Aplicação), Proprietário de Aplicativos, ProjectName)</t>
+          <t>Impor a proposta de princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1808,17 +1748,17 @@
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1829,23 +1769,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Implemente o Logon Único (SSO) usando o Active Directory do Azure ou os Serviços de Federação do Active Directory (AD FS) para que os usuários finais possam se conectar aos aplicativos SAP sempre que possível.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1854,17 +1794,17 @@
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
-      <c r="H23" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1875,17 +1815,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Se o SuccessFactor for usado como aplicativo HCM, aproveite o recurso de provisionamento de usuário automatizado para o Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1902,15 +1842,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="16" t="n"/>
+          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1921,17 +1865,17 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>A atribuição de I.P pública para VM executando a carga de trabalho SAP não é recomendada.</t>
+          <t>SSO para SAP Netweaver aplicações web baseadas como Fiori, webgui etc. podem ser implementadas usando SAML</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1948,19 +1892,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1971,23 +1915,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Considere reservar endereço I.P no lado DR ao configurar ASR</t>
+          <t>SSO para SAP GUI pode ser implementado usando o SAP SSO ou uma solução de terceiros</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1998,19 +1942,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>3686af46-791f-4893-9ada-43324e138115</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2021,17 +1965,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Evite usar faixas de endereço IP sobrepostas para locais de produção e DR.</t>
+          <t>Aplicativos SSO para SAP SaaS, como SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS e SAP C4C com Azure AD podem ser implementados usando SAML</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2048,19 +1992,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2071,17 +2015,17 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que o Networking Accelarated esteja habilitado para todos os VM quando for aplicável.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2098,19 +2042,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2121,17 +2065,17 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Os pares VNet locais e globais fornecem conectividade e são as abordagens preferidas para garantir conectividade entre zonas de pouso para implantações SAP em várias regiões do Azure</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2148,19 +2092,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2171,17 +2115,17 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo web para digitalizar seu tráfego quando ele estiver exposto à internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos de firewall incorporados, como o Application Gateway ou soluções de terceiros.</t>
+          <t>impor políticas de Grupo de Gerenciamento existentes às Assinaturas SAP</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2198,19 +2142,19 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2221,17 +2165,17 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que as implantações internas do Balanceador de Carga do Azure estejam configuradas para usar DSR (Direct Server Return, retorno do servidor direto) para configuração HA na camada DBMS</t>
+          <t>e, portanto, aplicativos estreitamente acoplados à mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2246,12 +2190,21 @@
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
-      <c r="H31" s="16" t="n"/>
+      <c r="H31" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2262,17 +2215,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Use o Firewall Azure para governar o tráfego de saída do Azure para a internet, conexões de entrada não-HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t xml:space="preserve">Aproveite a Suscription como unidade de escala e dimensionando nossos recursos, considere a implantação de assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2289,19 +2242,19 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2312,17 +2265,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Use o despachante SAP Web ou serviço de terceiros como o NetScaler em conjucção com o gateway do aplicativo, se necessário, para superar a limitação reversa do proxy para aplicativos web SAP.</t>
+          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, o total de núcleos de VM disponíveis em uma assinatura).</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2339,19 +2292,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2362,17 +2315,17 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas Azure Front Door e WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada a uma zona de pouso.</t>
+          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2389,19 +2342,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2412,17 +2365,17 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas WAF no Azure Front Door. Bloqueie o Portal de Aplicativos Azure para receber tráfego apenas a partir da Porta da Frente do Azure.</t>
+          <t>Aproveitar a marca de recursos do Azure para categorização de custos e agrupamento de recursos (: BillTo, Department (ou Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2439,19 +2392,15 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I35" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="n"/>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2462,17 +2411,17 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Para uma entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e garanta que a proteção e as políticas do WAF estejam ativadas.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2489,19 +2438,15 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I36" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="n"/>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2512,17 +2457,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Se os arquivos do Azure NetApp forem usados para implantação sap, certifique-se de que apenas uma sub-rede de delegados pode existir em uma Vnet para Azure NetAppFiles</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2539,19 +2484,15 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I37" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I37" s="16" t="n"/>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2562,17 +2503,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para tráfego de microsegmentar dentro da camada de aplicativos SAP, como sub-rede de aplicativos, sub-rede DB e sub-rede web etc.</t>
+          <t>Use o SAP Solution Manager e o Azure Monitor for SAP Solutions para monitorar o SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2587,21 +2528,13 @@
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2612,17 +2545,17 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Ele não é suportado para implantar qualquer NVA entre o aplicativo SAP e o servidor SAP Database</t>
+          <t>Execute uma verificação de extensão de VM para SAP. O VM Extension for SAP usa a identidade gerenciada atribuída de uma máquina virtual para acessar dados de monitoramento e configuração de VM.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2639,19 +2572,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2662,34 +2595,46 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>A colocação da camada de aplicativo SAP e do SAP DBMS em diferentes VNets Azure que não são espiadas não é suportada</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
-      <c r="E40" s="22" t="n"/>
+      <c r="E40" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
-      <c r="H40" s="16" t="n"/>
-      <c r="I40" s="16" t="n"/>
+      <c r="H40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2700,34 +2645,46 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Para obter uma latência de rede ideal com aplicativos SAP, considere usar grupos de colocação de proximidade do Azure.</t>
+          <t>Proteja seu banco de dados HANA com o serviço de Backup do Azure. Se você implantar o ANF (Arquivos NetApp) do Azure para seu banco de dados HANA, use a ferramenta Instantâneo Consistente de Aplicativo do Azure (AzAcSnap) para tirar instantâneos consistentes com o aplicativo</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n"/>
+      <c r="E41" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
-      <c r="H41" s="16" t="n"/>
-      <c r="I41" s="16" t="n"/>
+      <c r="H41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2748,7 +2705,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use o SAP Solution Manager e o Azure Monitor for SAP Solutions para monitorar o SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL</t>
+          <t>Execute uma verificação de qualidade do SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com o SAP HANA nas práticas recomendadas do Azure.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2763,13 +2720,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2790,7 +2755,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Execute uma extensão VM para verificação SAP. A VM Extension for SAP usa a identidade gerenciada atribuída de uma máquina virtual para acessar dados de monitoramento e configuração de VM.</t>
+          <t>Use o Monitor de Conexão do Inspetor de Rede para monitorar as métricas de latência do banco de dados SAP e do servidor de aplicativos ou colete e exiba medições de latência de rede com o Azure Monitor.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2807,19 +2772,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2840,7 +2805,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política Azure para relatórios de controle de acesso e conformidade. A Política Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a rápida detecção de violações. </t>
+          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2857,19 +2822,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2890,7 +2855,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Proteja seu banco de dados HANA com o serviço Azure Backup. Se você implantar os Arquivos do Azure NetApp (ANF) para o seu banco de dados HANA, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com aplicativos</t>
+          <t>Para cada assinatura do Azure, execute um teste de latência da Zona de Disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para SAP na implantação do Azure.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2907,19 +2872,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2940,7 +2900,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Realize uma verificação de qualidade para SAP HANA na infraestrutura do Azure provisionada para verificar se os VMs provisionados estão em conformidade com o SAP HANA sobre as melhores práticas do Azure.</t>
+          <t>Implemente a proteção contra ameaças para SAP com o Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2957,19 +2917,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2990,7 +2946,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Use o Network Watcher Connection Monitor para monitorar as métricas de latência do servidor de banco de dados e aplicativos SAP ou coletar e exibir medições de latência da rede com o Azure Monitor.</t>
+          <t>Impor a configuração do gerenciamento de atualizações por meio de políticas garante que todas as VMs sejam incluídas no regime de gerenciamento de patches, fornece às equipes de aplicativos a capacidade de gerenciar a implantação de patches para suas VMs e fornece à TI central recursos de visibilidade e imposição em todas as VMs</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3007,19 +2963,15 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I47" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="n"/>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3040,7 +2992,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Otimize e gerencie as operações do SAP Base usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para o Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
+          <t>Habilite o VM Insights para VMs que executam cargas de trabalho SAP.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3057,19 +3009,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3090,7 +3037,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Para cada assinatura do Azure, execute um teste de latência da Zona de Disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para SAP na implantação do Azure.</t>
+          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3107,14 +3054,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3135,7 +3082,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Implementar proteção contra ameaças para SAP com o Microsoft Sentinel.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3152,7 +3099,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3160,7 +3107,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3171,17 +3118,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>A aplicação da configuração do gerenciamento de atualizações por meio da política garante que todos os VMs sejam incluídos no regime de gerenciamento de patches, fornece às equipes de aplicativos a capacidade de gerenciar a implantação de patches para seus VMs e fornece recursos de visibilidade e execução de TI central em todos os VMs</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3198,15 +3145,19 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3217,17 +3168,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Habilite os insights de VM para as cargas de trabalho SAP em execução da VM.</t>
+          <t>O emparelhamento de rede virtual local e global fornece conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3244,15 +3195,19 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3263,17 +3218,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>A marcação do Azure pode ser aproveitada para agrupar e rastrear logicamente recursos, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
+          <t>A atribuição de IP pública à VM que executa a carga de trabalho SAP não é recomendada.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3290,14 +3245,19 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3308,17 +3268,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Considere reservar o endereço IP no lado da DR ao configurar o ASR</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3335,15 +3295,19 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I54" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I54" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3354,23 +3318,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Key Vault para armazenar seus segredos e credenciais</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3381,14 +3345,19 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3399,17 +3368,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Recomenda-se bloquear a implantação pós-sucesso do Azure Resources para proteger contra alterações não autorizadas</t>
+          <t>Verifique se a Rede Acelerada está habilitada para todas as VMs onde for aplicável.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3426,14 +3395,19 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3444,17 +3418,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault com as políticas de exclusão e eliminação suaves habilitadas para permitir proteção de retenção para objetos excluídos.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3471,14 +3445,19 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3489,17 +3468,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles regulatórios e de conformidade (internos/externos) - Determine quais são necessárias as Políticas Azure e o papel do Azure RBAC</t>
+          <t>Use o SAP Web dispatcher ou o serviço de terceiros, como o NetScaler, em conjunto com o gateway de aplicativos, se necessário, para superar a limitação de proxy reverso para aplicativos da Web SAP.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3516,14 +3495,19 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3534,17 +3518,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Quando você habilitar o Microsoft Defender for Cloud Standard para SAP, certifique-se de excluir os servidores de banco de dados SAP de qualquer política que instale proteção de ponto final.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3561,14 +3545,19 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3579,17 +3568,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Delegue um papel personalizado de administração SAP com acesso just-in-time.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3606,14 +3595,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3624,17 +3618,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações seguras de rede (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+          <t>Use um firewall de aplicativo da Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos de firewall integrados, como o Application Gateway ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3651,14 +3645,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3669,17 +3668,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>O Azure Active Directory (Azure AD) com o SAML 2.0 também pode fornecer SSO para uma gama de aplicativos e plataformas SAP como SAP NetWeaver, SAP HANA e a PLATAFORMA SAP Cloud</t>
+          <t>Verifique se as implantações internas do Balanceador de Carga do Azure estão configuradas para usar a configuração DSR (Retorno Direto do Servidor) para HA na camada DBMS</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3694,16 +3693,12 @@
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
-      <c r="H62" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H62" s="16" t="n"/>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3714,17 +3709,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de endurecer o sistema operacional para erradicar vulnerabilidades que podem levar a ataques no banco de dados SAP.</t>
+          <t>Se o Azure NetApp Files for usado para implantação do SAP, verifique se apenas uma sub-rede delegada pode existir em uma Vnet para Azure NetAppFiles</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3741,15 +3736,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3760,17 +3759,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Padrão para as chaves gerenciadas pela Microsoft para a funcionalidade principal de criptografia e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da camada de aplicativos SAP, como sub-rede de aplicativos, sub-rede de banco de dados e sub-rede da Web, etc.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3787,15 +3786,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3806,17 +3809,17 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chave Azure por aplicativo por ambiente por região.</t>
+          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor SAP Database</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3833,15 +3836,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I65" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3852,17 +3859,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SAP DBMS em diferentes redes virtuais do Azure que não são emparelhadas</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3877,16 +3884,12 @@
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
-      <c r="H66" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H66" s="16" t="n"/>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3897,23 +3900,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Personalize funções de controle de acesso baseado em papel (RBAC) para assinaturas de voz SAP no Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3922,17 +3925,13 @@
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
-      <c r="H67" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H67" s="16" t="n"/>
       <c r="I67" s="16" t="n"/>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3943,7 +3942,7 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
@@ -3953,13 +3952,13 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do resto da propriedade SAP, configure o Azure Private Link e gerencie e controle com segurança o SAP sobre os recursos do Azure</t>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,7 +3977,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3989,7 +3988,7 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
@@ -3999,7 +3998,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Para criptografia de servidor de banco de dados SAP, use a tecnologia de criptografia nativa SAP HANA. Se você estiver usando o Azure SQL Database, use O TDE (Transparent Data Encryption, criptografia de dados transparente) oferecido pelo provedor DBMS para proteger seus dados e registrar arquivos e garantir que os backups também sejam criptografados.</t>
+          <t>Isole DMZs e NVAs do restante do patrimônio SAP, configure o Azure Private Link e gerencie e controle com segurança o SAP nos recursos do Azure</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4024,7 +4023,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4035,7 +4034,7 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
@@ -4045,7 +4044,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>A criptografia de armazenamento do Azure é ativada por padrão</t>
+          <t>Para criptografia de servidor de banco de dados SAP, use a tecnologia de criptografia nativa SAP HANA. Se você estiver usando o Banco de Dados SQL do Azure, use a TDE (Criptografia de Dados Transparente) oferecida pelo provedor DBMS para proteger seus dados e arquivos de log e garantir que os backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4070,7 +4069,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4081,7 +4080,7 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
@@ -4091,7 +4090,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>A criptografia do Armazenamento do Azure está habilitada por padrão</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4116,7 +4115,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4127,7 +4126,7 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
@@ -4162,7 +4161,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4173,17 +4172,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C73" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C73" s="22" t="inlineStr">
-        <is>
-          <t>Não combine o cluster ASCS e o database em VM único/mesmo</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4200,7 +4199,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4208,7 +4207,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4219,23 +4218,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que o IP flutuante está ativado no balanceador de carga</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4246,7 +4245,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4254,7 +4253,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4265,17 +4264,17 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Não misture servidores de diferentes funções no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4292,7 +4291,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4300,7 +4299,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4311,17 +4310,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use um grupo de colocação de proximidade por SAP SID. Grupos não se estendem por zonas de disponibilidade ou regiões do Azure</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4338,7 +4337,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4346,7 +4345,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4357,17 +4356,17 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Atualmente, o Azure não suporta a combinação de ASCS e db HA no mesmo cluster Linux Pacemaker; separá-los em aglomerados individuais. No entanto, você pode combinar até cinco vários clusters de serviços centrais em um par de VMs.</t>
+          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4384,7 +4383,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4392,7 +4391,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4403,17 +4402,17 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use um SKU balanceador de carga padrão na frente de clusters ASCS e DB</t>
+          <t>Ao habilitar o Microsoft Defender for Cloud Standard for SAP, exclua os servidores de banco de dados SAP de qualquer política que instale a proteção de ponto de extremidade.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4430,7 +4429,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4438,7 +4437,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4449,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Ambos os VMs no par HA devem ser implantados em um conjunto de disponibilidade, ou zonas de disponibilidade devem ter o mesmo tamanho e ter a mesma configuração de armazenamento</t>
+          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4476,7 +4475,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4484,7 +4483,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4495,17 +4494,17 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>A tecnologia nativa de replicação do banco de dados deve ser usada para sincronizar o banco de dados em um par HA.</t>
+          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4522,7 +4521,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4530,7 +4529,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4541,17 +4540,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Realize uma recuperação pontual para seus bancos de dados de produção a qualquer momento e em um período de tempo que atenda ao seu RTO; a recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou através do SAP, aliás</t>
+          <t>O Azure Active Directory (Azure AD) com SAML 2.0 também pode fornecer SSO a uma variedade de aplicativos e plataformas SAP, como SAP NetWeaver, SAP HANA e SAP Cloud Platform</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4568,7 +4567,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4576,7 +4575,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4587,34 +4586,42 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>O CIDR para a rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor com o CIDR do Vnet do site DR</t>
+          <t>Certifique-se de proteger o sistema operacional para erradicar vulnerabilidades que podem levar a ataques ao banco de dados SAP.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
-      <c r="E82" s="22" t="n"/>
+      <c r="E82" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
-      <c r="H82" s="16" t="n"/>
+      <c r="H82" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4625,34 +4632,42 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use a Recuperação do Site para replicar um servidor de aplicativo em um site dr. A recuperação do site também pode ajudar na replicação de VMs de cluster de serviços centrais para o site da DR. Quando você invocar DR, você precisará reconfigurar o cluster Linux Pacemaker no site DR (por exemplo, substituir o VIP ou SBD, executar corosync.conf e muito mais).</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
-      <c r="E83" s="22" t="n"/>
+      <c r="E83" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
-      <c r="H83" s="16" t="n"/>
+      <c r="H83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4663,34 +4678,42 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>A replicação nativa do banco de dados deve ser usada para sincronizar dados com o site DR, em vez de recuperação do local do Azure</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
-      <c r="E84" s="22" t="n"/>
+      <c r="E84" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
-      <c r="H84" s="16" t="n"/>
+      <c r="H84" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4701,34 +4724,42 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C85" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
         </is>
       </c>
-      <c r="C85" s="22" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
       <c r="D85" s="22" t="n"/>
-      <c r="E85" s="22" t="n"/>
+      <c r="E85" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
-      <c r="H85" s="16" t="n"/>
+      <c r="H85" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf6-5de8e1309ccc</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4749,11 +4780,15 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Disque-de-disco para Oracle, SQL, HANA</t>
+          <t>Configuração de disco para Oracle, SQL, HANA</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
-      <c r="E86" s="22" t="n"/>
+      <c r="E86" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4777,34 +4812,46 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Checlistas</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>c4919cb1-b3d1-4325-ae12-4ba34df685ed</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4815,34 +4862,46 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEIVA </t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>dce9bd3b-b0cd-4b3b-95eb-2ec14eeaa359</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4853,38 +4912,46 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Faça pedidos de cotas para VM SKU e Zonas corretas</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4905,7 +4972,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4927,14 +4994,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4955,7 +5022,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4977,14 +5044,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5005,7 +5072,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5027,14 +5094,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5055,7 +5122,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5072,7 +5139,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5084,7 +5151,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5105,7 +5172,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5122,7 +5189,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5134,7 +5201,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5155,7 +5222,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5177,14 +5244,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5205,7 +5272,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5222,19 +5289,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5250,12 +5317,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5272,19 +5339,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5305,7 +5372,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5322,7 +5389,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5334,7 +5401,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5355,7 +5422,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5372,19 +5439,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5405,7 +5472,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5422,19 +5489,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5455,7 +5522,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5477,14 +5544,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5505,7 +5572,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5534,7 +5601,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5555,7 +5622,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5572,7 +5639,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5584,7 +5651,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5605,7 +5672,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5622,7 +5689,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5634,7 +5701,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5655,13 +5722,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5672,19 +5739,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5700,18 +5767,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5722,19 +5789,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5750,12 +5817,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5772,19 +5839,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5800,12 +5867,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5822,19 +5889,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5855,7 +5922,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5872,7 +5939,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -5884,7 +5951,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5905,7 +5972,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5922,7 +5989,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -5934,7 +6001,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5955,7 +6022,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5977,14 +6044,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6005,7 +6072,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6027,14 +6094,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6055,7 +6122,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6077,14 +6144,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6100,12 +6167,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6125,12 +6192,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6151,7 +6222,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6168,19 +6239,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6201,7 +6267,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6218,7 +6284,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6230,7 +6296,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6246,12 +6312,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6268,19 +6334,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6301,7 +6367,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6318,15 +6384,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6347,7 +6417,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6364,14 +6434,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6392,7 +6462,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6409,7 +6479,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6417,7 +6487,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6428,17 +6498,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6455,19 +6525,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6488,7 +6554,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6503,13 +6569,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6530,7 +6604,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6545,21 +6619,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6580,7 +6646,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6609,7 +6675,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6630,7 +6696,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6647,19 +6713,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6680,7 +6746,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6697,19 +6763,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6730,7 +6796,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6747,19 +6813,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6780,7 +6846,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6797,19 +6863,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6830,7 +6896,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6847,14 +6913,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6875,13 +6946,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6892,14 +6963,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6920,7 +6991,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6937,14 +7008,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6965,7 +7036,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -6982,14 +7053,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7010,7 +7081,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7027,14 +7098,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7055,7 +7126,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7072,14 +7143,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7100,7 +7171,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7117,14 +7188,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7145,7 +7216,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7162,14 +7233,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7190,7 +7261,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7207,14 +7278,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7235,7 +7306,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7252,14 +7323,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7280,7 +7351,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7297,14 +7368,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7315,23 +7386,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7342,14 +7413,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7360,17 +7431,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7387,14 +7458,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7415,13 +7486,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7432,14 +7503,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7477,14 +7548,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7505,7 +7576,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7529,7 +7600,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7550,7 +7621,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7574,7 +7645,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7595,7 +7666,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7619,7 +7690,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7657,14 +7728,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7685,7 +7756,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7709,7 +7780,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7730,7 +7801,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7747,14 +7818,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7775,7 +7846,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7799,7 +7870,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7820,7 +7891,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -7837,14 +7908,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7860,18 +7931,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7882,14 +7953,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7905,12 +7976,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7927,14 +7998,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7955,13 +8026,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7979,7 +8050,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8000,7 +8071,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8017,14 +8088,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8045,7 +8116,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8069,7 +8140,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8090,13 +8161,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8114,7 +8185,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8135,7 +8206,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8159,7 +8230,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8180,13 +8251,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8204,7 +8275,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8225,7 +8296,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8249,7 +8320,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8270,7 +8341,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8294,7 +8365,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8315,7 +8386,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8339,7 +8410,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8355,12 +8426,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8377,14 +8448,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8400,12 +8471,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8422,14 +8493,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8450,7 +8521,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8467,14 +8538,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8495,7 +8566,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8512,14 +8583,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8540,7 +8611,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8557,14 +8628,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8585,7 +8656,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8602,14 +8673,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8630,7 +8701,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8647,14 +8718,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8675,7 +8746,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8699,7 +8770,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8720,7 +8791,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8737,14 +8808,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8753,360 +8824,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10664,7 +11455,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10748,7 +11539,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10804,14 +11595,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F90" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F87" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10944,7 +11765,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10976,7 +11797,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11030,7 +11851,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">

--- a/spreadsheet/sap_checklist.pt.xlsx
+++ b/spreadsheet/sap_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisão da zona de desembarque do Azure</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Imponha um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Não combine o ASCS e o cluster de banco de dados em uma VM única/mesma</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1120,17 +1120,17 @@
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Imponha propogação de princípio para o encaminhamento da identidade do aplicativo de nuvem SAP para SAP no local (Incluindo IaaS) através do conector de nuvem</t>
+          <t>Verifique se o IP flutuante está habilitado no balanceador de carga</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1166,17 +1166,17 @@
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
-      <c r="H9" s="16" t="n"/>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Implemente o Single Sign on (SSO) usando o Azure Active Directory ou o Active Directory Federation Services (AD FS) para que os usuários finais condam o nécto aos aplicativos SAP, sempre que possível.</t>
+          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1212,17 +1212,17 @@
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="H10" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="n"/>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>750ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,17 +1233,17 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Se o SuccessFactor for usado como aplicativo HCM, aproveite o recurso automatizado de provisionamento do usuário para o Azure AD.</t>
+          <t>Use um grupo de posicionamento de proximidade por SAP SID. Os grupos não se estendem entre zonas de disponibilidade ou regiões do Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1260,19 +1260,15 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I11" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="n"/>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1283,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Aplicativos web baseados em SSO para SAP Netweaver como Fiori, webgui etc. podem ser implementados usando SAML</t>
+          <t>No momento, o Azure não oferece suporte à combinação de ASCS e db HA no mesmo cluster do Linux Pacemaker; separe-os em clusters individuais. No entanto, você pode combinar até cinco clusters de vários serviços centrais em um par de VMs.</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1310,19 +1306,15 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1333,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>O SSO para SAP GUI pode ser implementado usando o SAP SSO ou uma solução de terceiros</t>
+          <t>Usar uma SKU do Balanceador de Carga Padrão na frente de clusters ASCS e de banco de dados</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1360,19 +1352,15 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
-        </is>
-      </c>
-      <c r="I13" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3686af46-791f-4893-9ada-43324e138115</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1383,17 +1371,17 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Aplicativos SSO para SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS e SAP C4C com AZure AD podem ser implementados usando SAML</t>
+          <t>Ambas as VMs no par de HA devem ser implantadas em um conjunto de disponibilidade, ou as zonas de disponibilidade devem ter o mesmo tamanho e ter a mesma configuração de armazenamento</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1410,19 +1398,15 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
-        </is>
-      </c>
-      <c r="I14" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+        </is>
+      </c>
+      <c r="I14" s="16" t="n"/>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1433,17 +1417,17 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>A tecnologia de replicação de banco de dados nativa deve ser usada para sincronizar o banco de dados em um par de HA.</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1460,19 +1444,15 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
-        </is>
-      </c>
-      <c r="I15" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1483,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Execute uma recuperação point-in-time para seus bancos de dados de produção a qualquer momento e em um período de tempo que atenda ao seu RTO; A recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou por meio do SAP, incidentalmente</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1510,19 +1490,15 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n"/>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1533,17 +1509,17 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>aplicar as políticas existentes do Grupo de Gerenciamento para assinaturas SAP</t>
+          <t>O CIDR para a rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor ao CIDR da Vnet do site de DR</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1558,21 +1534,13 @@
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1583,17 +1551,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>enfore aplicativos intimamente acoplado na mesma assinatura SAP para evitar roteamento adicional e complexidade de gerenciamento</t>
+          <t>Use a Recuperação de Site para replicar um servidor de aplicativos para um site de DR. A Recuperação de Site também pode ajudar a replicar VMs de cluster de serviços centrais para o site de DR. Ao invocar a DR, você precisará reconfigurar o cluster do Linux Pacemaker no site da DR (por exemplo, substitua o VIP ou o SBD, execute corosync.conf e muito mais).</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1608,21 +1576,13 @@
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
-      <c r="H18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1633,17 +1593,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveite a Suscription como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
+          <t>A replicação de banco de dados nativo deve ser usada para sincronizar dados com o site de recuperação de dados, em vez do Azure Site Recovery</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1658,21 +1618,13 @@
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1683,17 +1635,17 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Garanta o aumento do contingente como parte do provisionamento de subscrição (por exemplo, núcleos VM totais disponíveis dentro de uma assinatura).</t>
+          <t>Fazer solicitações de cota para SKU e Zonas de VM corretas</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1708,21 +1660,13 @@
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
-      <c r="H20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1733,23 +1677,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1758,21 +1702,17 @@
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
+      <c r="H21" s="16" t="n"/>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1783,17 +1723,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Aproveite a etiqueta de recursos do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Nível (Nível Web, Nível de Aplicação), Proprietário de Aplicativos, ProjectName)</t>
+          <t>Impor a propagação do princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1808,17 +1748,17 @@
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1829,23 +1769,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Implemente o Logon Único (SSO) usando o Active Directory do Azure ou os Serviços de Federação do Active Directory (AD FS) para que os usuários finais possam se conectar aos aplicativos SAP sempre que possível.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1854,17 +1794,17 @@
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
-      <c r="H23" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1875,17 +1815,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Se o SuccessFactor for usado como aplicativo HCM, aproveite o recurso de provisionamento de usuário automatizado para o Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1902,15 +1842,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="16" t="n"/>
+          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1921,17 +1865,17 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>A atribuição de I.P pública para VM executando a carga de trabalho SAP não é recomendada.</t>
+          <t>SSO para SAP Netweaver aplicações web baseadas como Fiori, webgui etc. podem ser implementadas usando SAML</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1948,19 +1892,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1971,23 +1915,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Considere reservar endereço I.P no lado DR ao configurar ASR</t>
+          <t>SSO para SAP GUI pode ser implementado usando o SAP SSO ou uma solução de terceiros</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1998,19 +1942,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>3686af46-791f-4893-9ada-43324e138115</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2021,17 +1965,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Evite usar faixas de endereço IP sobrepostas para locais de produção e DR.</t>
+          <t>Aplicativos SSO para SAP SaaS, como SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS e SAP C4C com Azure AD podem ser implementados usando SAML</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2048,19 +1992,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2071,17 +2015,17 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que o Networking Accelarated esteja habilitado para todos os VM quando for aplicável.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2098,19 +2042,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2121,17 +2065,17 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Os pares VNet locais e globais fornecem conectividade e são as abordagens preferidas para garantir conectividade entre zonas de pouso para implantações SAP em várias regiões do Azure</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2148,19 +2092,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2171,17 +2115,17 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo web para digitalizar seu tráfego quando ele estiver exposto à internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos de firewall incorporados, como o Application Gateway ou soluções de terceiros.</t>
+          <t>impor políticas de Grupo de Gerenciamento existentes às Assinaturas SAP</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2198,19 +2142,19 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2221,17 +2165,17 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que as implantações internas do Balanceador de Carga do Azure estejam configuradas para usar DSR (Direct Server Return, retorno do servidor direto) para configuração HA na camada DBMS</t>
+          <t>e, portanto, aplicativos estreitamente acoplados à mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2246,12 +2190,21 @@
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
-      <c r="H31" s="16" t="n"/>
+      <c r="H31" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2262,17 +2215,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Use o Firewall Azure para governar o tráfego de saída do Azure para a internet, conexões de entrada não-HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensionando nossos recursos, considere a implantação de assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2289,19 +2242,19 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2312,17 +2265,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Use o despachante SAP Web ou serviço de terceiros como o NetScaler em conjucção com o gateway do aplicativo, se necessário, para superar a limitação reversa do proxy para aplicativos web SAP.</t>
+          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, o total de núcleos de VM disponíveis em uma assinatura).</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2339,19 +2292,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2362,17 +2315,17 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas Azure Front Door e WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada a uma zona de pouso.</t>
+          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2389,19 +2342,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2412,17 +2365,17 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas WAF no Azure Front Door. Bloqueie o Portal de Aplicativos Azure para receber tráfego apenas a partir da Porta da Frente do Azure.</t>
+          <t>Aproveitar a marca de recursos do Azure para categorização de custos e agrupamento de recursos (: BillTo, Department (ou Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2439,19 +2392,15 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I35" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="n"/>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2462,17 +2411,17 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Para uma entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e garanta que a proteção e as políticas do WAF estejam ativadas.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2489,19 +2438,15 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I36" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="n"/>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2512,17 +2457,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Se os arquivos do Azure NetApp forem usados para implantação sap, certifique-se de que apenas uma sub-rede de delegados pode existir em uma Vnet para Azure NetAppFiles</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2539,19 +2484,15 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I37" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I37" s="16" t="n"/>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2562,17 +2503,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para tráfego de microsegmentar dentro da camada de aplicativos SAP, como sub-rede de aplicativos, sub-rede DB e sub-rede web etc.</t>
+          <t>Use o SAP Solution Manager e o Azure Monitor for SAP Solutions para monitorar o SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2587,21 +2528,13 @@
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2612,17 +2545,17 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Ele não é suportado para implantar qualquer NVA entre o aplicativo SAP e o servidor SAP Database</t>
+          <t>Execute uma verificação de extensão de VM para SAP. O VM Extension for SAP usa a identidade gerenciada atribuída de uma máquina virtual para acessar dados de monitoramento e configuração de VM.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2639,19 +2572,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2662,34 +2595,46 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>A colocação da camada de aplicativo SAP e do SAP DBMS em diferentes VNets Azure que não são espiadas não é suportada</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
-      <c r="E40" s="22" t="n"/>
+      <c r="E40" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
-      <c r="H40" s="16" t="n"/>
-      <c r="I40" s="16" t="n"/>
+      <c r="H40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2700,34 +2645,46 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Para obter uma latência de rede ideal com aplicativos SAP, considere usar grupos de colocação de proximidade do Azure.</t>
+          <t>Proteja seu banco de dados HANA com o serviço de Backup do Azure. Se você implantar o ANF (Arquivos NetApp) do Azure para seu banco de dados HANA, use a ferramenta Instantâneo Consistente de Aplicativo do Azure (AzAcSnap) para tirar instantâneos consistentes com o aplicativo</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n"/>
+      <c r="E41" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
-      <c r="H41" s="16" t="n"/>
-      <c r="I41" s="16" t="n"/>
+      <c r="H41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2748,7 +2705,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use o SAP Solution Manager e o Azure Monitor for SAP Solutions para monitorar o SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL</t>
+          <t>Execute uma verificação de qualidade do SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com o SAP HANA nas práticas recomendadas do Azure.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2763,13 +2720,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2790,7 +2755,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Execute uma extensão VM para verificação SAP. A VM Extension for SAP usa a identidade gerenciada atribuída de uma máquina virtual para acessar dados de monitoramento e configuração de VM.</t>
+          <t>Use o Monitor de Conexão do Inspetor de Rede para monitorar as métricas de latência do banco de dados SAP e do servidor de aplicativos ou colete e exiba medições de latência de rede com o Azure Monitor.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2807,19 +2772,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2840,7 +2805,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política Azure para relatórios de controle de acesso e conformidade. A Política Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a rápida detecção de violações. </t>
+          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2857,19 +2822,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2890,7 +2855,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Proteja seu banco de dados HANA com o serviço Azure Backup. Se você implantar os Arquivos do Azure NetApp (ANF) para o seu banco de dados HANA, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com aplicativos</t>
+          <t>Para cada assinatura do Azure, execute um teste de latência da Zona de Disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para SAP na implantação do Azure.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2907,19 +2872,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2940,7 +2900,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Realize uma verificação de qualidade para SAP HANA na infraestrutura do Azure provisionada para verificar se os VMs provisionados estão em conformidade com o SAP HANA sobre as melhores práticas do Azure.</t>
+          <t>Implemente a proteção contra ameaças para SAP com o Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2957,19 +2917,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2990,7 +2946,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Use o Network Watcher Connection Monitor para monitorar as métricas de latência do servidor de banco de dados e aplicativos SAP ou coletar e exibir medições de latência da rede com o Azure Monitor.</t>
+          <t>Impor a configuração do gerenciamento de atualizações por meio de políticas garante que todas as VMs sejam incluídas no regime de gerenciamento de patches, fornece às equipes de aplicativos a capacidade de gerenciar a implantação de patches para suas VMs e fornece à TI central recursos de visibilidade e imposição em todas as VMs</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3007,19 +2963,15 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I47" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="n"/>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3040,7 +2992,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Otimize e gerencie as operações do SAP Base usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para o Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
+          <t>Habilite o VM Insights para VMs que executam cargas de trabalho SAP.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3057,19 +3009,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3090,7 +3037,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Para cada assinatura do Azure, execute um teste de latência da Zona de Disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para SAP na implantação do Azure.</t>
+          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3107,14 +3054,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3135,7 +3082,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Implementar proteção contra ameaças para SAP com o Microsoft Sentinel.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3152,7 +3099,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3160,7 +3107,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3171,17 +3118,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>A aplicação da configuração do gerenciamento de atualizações por meio da política garante que todos os VMs sejam incluídos no regime de gerenciamento de patches, fornece às equipes de aplicativos a capacidade de gerenciar a implantação de patches para seus VMs e fornece recursos de visibilidade e execução de TI central em todos os VMs</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3198,15 +3145,19 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3217,17 +3168,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Habilite os insights de VM para as cargas de trabalho SAP em execução da VM.</t>
+          <t>O emparelhamento de rede virtual local e global fornece conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3244,15 +3195,19 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3263,17 +3218,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>A marcação do Azure pode ser aproveitada para agrupar e rastrear logicamente recursos, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
+          <t>A atribuição de IP pública à VM que executa a carga de trabalho SAP não é recomendada.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3290,14 +3245,19 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3308,17 +3268,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Considere reservar o endereço IP no lado da DR ao configurar o ASR</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3335,15 +3295,19 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I54" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I54" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3354,23 +3318,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Key Vault para armazenar seus segredos e credenciais</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3381,14 +3345,19 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3399,17 +3368,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Recomenda-se bloquear a implantação pós-sucesso do Azure Resources para proteger contra alterações não autorizadas</t>
+          <t>Verifique se a Rede Acelerada está habilitada para todas as VMs em que é aplicável.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3426,14 +3395,19 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3444,17 +3418,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault com as políticas de exclusão e eliminação suaves habilitadas para permitir proteção de retenção para objetos excluídos.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3471,14 +3445,19 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3489,17 +3468,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles regulatórios e de conformidade (internos/externos) - Determine quais são necessárias as Políticas Azure e o papel do Azure RBAC</t>
+          <t>Use o SAP Web dispatcher ou um serviço de terceiros, como o NetScaler, em conjunto com o gateway de aplicativos, se necessário, para superar a limitação de proxy reverso para o SAP Web Apps.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3516,14 +3495,19 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3534,17 +3518,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Quando você habilitar o Microsoft Defender for Cloud Standard para SAP, certifique-se de excluir os servidores de banco de dados SAP de qualquer política que instale proteção de ponto final.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3561,14 +3545,19 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3579,17 +3568,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Delegue um papel personalizado de administração SAP com acesso just-in-time.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3606,14 +3595,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3624,17 +3618,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações seguras de rede (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+          <t>Use um firewall de aplicativo da Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos de firewall integrados, como o Application Gateway ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3651,14 +3645,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3669,17 +3668,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>O Azure Active Directory (Azure AD) com o SAML 2.0 também pode fornecer SSO para uma gama de aplicativos e plataformas SAP como SAP NetWeaver, SAP HANA e a PLATAFORMA SAP Cloud</t>
+          <t>Verifique se as implantações internas do Balanceador de Carga do Azure estão configuradas para usar a configuração DSR (Retorno Direto do Servidor) para HA na camada DBMS</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3694,16 +3693,12 @@
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
-      <c r="H62" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H62" s="16" t="n"/>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3714,17 +3709,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de endurecer o sistema operacional para erradicar vulnerabilidades que podem levar a ataques no banco de dados SAP.</t>
+          <t>Se o Azure NetApp Files for usado para implantação do SAP, verifique se apenas uma sub-rede delegada pode existir em uma Vnet para Azure NetAppFiles</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3741,15 +3736,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3760,17 +3759,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Padrão para as chaves gerenciadas pela Microsoft para a funcionalidade principal de criptografia e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da camada de aplicativos SAP, como sub-rede de aplicativos, sub-rede de banco de dados e sub-rede da Web, etc.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3787,15 +3786,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3806,17 +3809,17 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chave Azure por aplicativo por ambiente por região.</t>
+          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor SAP Database</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3833,15 +3836,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I65" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3852,17 +3859,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SAP DBMS em diferentes redes virtuais do Azure que não são emparelhadas</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3877,16 +3884,12 @@
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
-      <c r="H66" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H66" s="16" t="n"/>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3897,23 +3900,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Personalize funções de controle de acesso baseado em papel (RBAC) para assinaturas de voz SAP no Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3922,17 +3925,13 @@
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
-      <c r="H67" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H67" s="16" t="n"/>
       <c r="I67" s="16" t="n"/>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3943,7 +3942,7 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
@@ -3953,13 +3952,13 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do resto da propriedade SAP, configure o Azure Private Link e gerencie e controle com segurança o SAP sobre os recursos do Azure</t>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,7 +3977,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3989,7 +3988,7 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
@@ -3999,7 +3998,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Para criptografia de servidor de banco de dados SAP, use a tecnologia de criptografia nativa SAP HANA. Se você estiver usando o Azure SQL Database, use O TDE (Transparent Data Encryption, criptografia de dados transparente) oferecido pelo provedor DBMS para proteger seus dados e registrar arquivos e garantir que os backups também sejam criptografados.</t>
+          <t>Isole DMZs e NVAs do restante do patrimônio SAP, configure o Azure Private Link e gerencie e controle com segurança o SAP nos recursos do Azure</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4024,7 +4023,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4035,7 +4034,7 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
@@ -4045,7 +4044,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>A criptografia de armazenamento do Azure é ativada por padrão</t>
+          <t>Para criptografia de servidor de banco de dados SAP, use a tecnologia de criptografia nativa SAP HANA. Se você estiver usando o Banco de Dados SQL do Azure, use a TDE (Criptografia de Dados Transparente) oferecida pelo provedor DBMS para proteger seus dados e arquivos de log e garantir que os backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4070,7 +4069,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4081,7 +4080,7 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
@@ -4091,7 +4090,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>A criptografia do Armazenamento do Azure está habilitada por padrão</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4116,7 +4115,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4127,7 +4126,7 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
@@ -4162,7 +4161,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4173,17 +4172,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C73" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C73" s="22" t="inlineStr">
-        <is>
-          <t>Não combine o cluster ASCS e o database em VM único/mesmo</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4200,7 +4199,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4208,7 +4207,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4219,23 +4218,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que o IP flutuante está ativado no balanceador de carga</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4246,7 +4245,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4254,7 +4253,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4265,17 +4264,17 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Não misture servidores de diferentes funções no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4292,7 +4291,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4300,7 +4299,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4311,17 +4310,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use um grupo de colocação de proximidade por SAP SID. Grupos não se estendem por zonas de disponibilidade ou regiões do Azure</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4338,7 +4337,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4346,7 +4345,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4357,17 +4356,17 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Atualmente, o Azure não suporta a combinação de ASCS e db HA no mesmo cluster Linux Pacemaker; separá-los em aglomerados individuais. No entanto, você pode combinar até cinco vários clusters de serviços centrais em um par de VMs.</t>
+          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4384,7 +4383,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4392,7 +4391,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4403,17 +4402,17 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use um SKU balanceador de carga padrão na frente de clusters ASCS e DB</t>
+          <t>Ao habilitar o Microsoft Defender for Cloud Standard for SAP, exclua os servidores de banco de dados SAP de qualquer política que instale a proteção de ponto de extremidade.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4430,7 +4429,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4438,7 +4437,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4449,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Ambos os VMs no par HA devem ser implantados em um conjunto de disponibilidade, ou zonas de disponibilidade devem ter o mesmo tamanho e ter a mesma configuração de armazenamento</t>
+          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4476,7 +4475,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4484,7 +4483,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4495,17 +4494,17 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>A tecnologia nativa de replicação do banco de dados deve ser usada para sincronizar o banco de dados em um par HA.</t>
+          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4522,7 +4521,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4530,7 +4529,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4541,17 +4540,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Realize uma recuperação pontual para seus bancos de dados de produção a qualquer momento e em um período de tempo que atenda ao seu RTO; a recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou através do SAP, aliás</t>
+          <t>O Azure Active Directory (Azure AD) com SAML 2.0 também pode fornecer SSO a uma variedade de aplicativos e plataformas SAP, como SAP NetWeaver, SAP HANA e SAP Cloud Platform</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4568,7 +4567,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4576,7 +4575,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4587,34 +4586,42 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>O CIDR para a rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor com o CIDR do Vnet do site DR</t>
+          <t>Certifique-se de proteger o sistema operacional para erradicar vulnerabilidades que podem levar a ataques ao banco de dados SAP.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
-      <c r="E82" s="22" t="n"/>
+      <c r="E82" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
-      <c r="H82" s="16" t="n"/>
+      <c r="H82" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4625,34 +4632,42 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use a Recuperação do Site para replicar um servidor de aplicativo em um site dr. A recuperação do site também pode ajudar na replicação de VMs de cluster de serviços centrais para o site da DR. Quando você invocar DR, você precisará reconfigurar o cluster Linux Pacemaker no site DR (por exemplo, substituir o VIP ou SBD, executar corosync.conf e muito mais).</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
-      <c r="E83" s="22" t="n"/>
+      <c r="E83" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
-      <c r="H83" s="16" t="n"/>
+      <c r="H83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4663,34 +4678,42 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>A replicação nativa do banco de dados deve ser usada para sincronizar dados com o site DR, em vez de recuperação do local do Azure</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
-      <c r="E84" s="22" t="n"/>
+      <c r="E84" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
-      <c r="H84" s="16" t="n"/>
+      <c r="H84" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4701,34 +4724,42 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios e Recuperação de Desastres</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C85" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
         </is>
       </c>
-      <c r="C85" s="22" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
       <c r="D85" s="22" t="n"/>
-      <c r="E85" s="22" t="n"/>
+      <c r="E85" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
-      <c r="H85" s="16" t="n"/>
+      <c r="H85" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf6-5de8e1309ccc</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4749,11 +4780,15 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Disque-de-disco para Oracle, SQL, HANA</t>
+          <t>Configuração de disco para Oracle, SQL, HANA</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
-      <c r="E86" s="22" t="n"/>
+      <c r="E86" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4777,34 +4812,46 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Checlistas</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>c4919cb1-b3d1-4325-ae12-4ba34df685ed</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4815,34 +4862,46 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEIVA </t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>dce9bd3b-b0cd-4b3b-95eb-2ec14eeaa359</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4853,38 +4912,46 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Faça pedidos de cotas para VM SKU e Zonas corretas</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4905,7 +4972,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4927,14 +4994,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4955,7 +5022,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4977,14 +5044,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5005,7 +5072,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5027,14 +5094,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5055,7 +5122,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5072,7 +5139,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5084,7 +5151,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5105,7 +5172,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5122,7 +5189,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5134,7 +5201,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5155,7 +5222,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5177,14 +5244,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5205,7 +5272,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5222,19 +5289,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5250,12 +5317,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5272,19 +5339,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5305,7 +5372,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5322,7 +5389,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5334,7 +5401,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5355,7 +5422,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5372,19 +5439,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5405,7 +5472,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5422,19 +5489,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5455,7 +5522,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5477,14 +5544,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5505,7 +5572,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5534,7 +5601,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5555,7 +5622,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5572,7 +5639,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5584,7 +5651,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5605,7 +5672,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5622,7 +5689,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5634,7 +5701,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5655,13 +5722,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5672,19 +5739,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5700,18 +5767,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5722,19 +5789,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5750,12 +5817,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5772,19 +5839,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5800,12 +5867,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5822,19 +5889,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5855,7 +5922,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5872,7 +5939,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -5884,7 +5951,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5905,7 +5972,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5922,7 +5989,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -5934,7 +6001,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5955,7 +6022,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5977,14 +6044,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6005,7 +6072,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6027,14 +6094,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6055,7 +6122,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6077,14 +6144,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6100,12 +6167,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6125,12 +6192,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6151,7 +6222,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6168,19 +6239,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6201,7 +6267,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6218,7 +6284,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6230,7 +6296,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6246,12 +6312,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6268,19 +6334,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6301,7 +6367,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6318,15 +6384,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6347,7 +6417,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6364,14 +6434,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6392,7 +6462,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6409,7 +6479,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6417,7 +6487,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6428,17 +6498,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6455,19 +6525,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6488,7 +6554,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6503,13 +6569,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6530,7 +6604,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6545,21 +6619,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6580,7 +6646,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6609,7 +6675,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6630,7 +6696,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6647,19 +6713,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6680,7 +6746,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6697,19 +6763,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6730,7 +6796,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6747,19 +6813,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6780,7 +6846,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6797,19 +6863,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6830,7 +6896,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6847,14 +6913,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6875,13 +6946,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6892,14 +6963,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6920,7 +6991,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6937,14 +7008,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6965,7 +7036,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -6982,14 +7053,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7010,7 +7081,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7027,14 +7098,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7055,7 +7126,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7072,14 +7143,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7100,7 +7171,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7117,14 +7188,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7145,7 +7216,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7162,14 +7233,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7190,7 +7261,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7207,14 +7278,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7235,7 +7306,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7252,14 +7323,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7280,7 +7351,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7297,14 +7368,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7315,23 +7386,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7342,14 +7413,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7360,17 +7431,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7387,14 +7458,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7415,13 +7486,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7432,14 +7503,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7477,14 +7548,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7505,7 +7576,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7529,7 +7600,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7550,7 +7621,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7574,7 +7645,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7595,7 +7666,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7619,7 +7690,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7657,14 +7728,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7685,7 +7756,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7709,7 +7780,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7730,7 +7801,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7747,14 +7818,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7775,7 +7846,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7799,7 +7870,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7820,7 +7891,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -7837,14 +7908,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7860,18 +7931,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7882,14 +7953,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7905,12 +7976,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7927,14 +7998,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7955,13 +8026,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7979,7 +8050,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8000,7 +8071,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8017,14 +8088,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8045,7 +8116,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8069,7 +8140,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8090,13 +8161,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8114,7 +8185,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8135,7 +8206,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8159,7 +8230,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8180,13 +8251,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8204,7 +8275,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8225,7 +8296,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8249,7 +8320,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8270,7 +8341,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8294,7 +8365,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8315,7 +8386,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8339,7 +8410,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8355,12 +8426,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8377,14 +8448,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8400,12 +8471,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8422,14 +8493,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8450,7 +8521,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8467,14 +8538,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8495,7 +8566,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8512,14 +8583,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8540,7 +8611,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8557,14 +8628,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8585,7 +8656,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8602,14 +8673,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8630,7 +8701,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8647,14 +8718,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8675,7 +8746,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8699,7 +8770,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8720,7 +8791,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8737,14 +8808,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8753,360 +8824,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10664,7 +11455,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10748,7 +11539,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10804,14 +11595,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F90" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F87" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10944,7 +11765,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10976,7 +11797,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11030,7 +11851,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
